--- a/Assets/donnees/fichier_C.xlsx
+++ b/Assets/donnees/fichier_C.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="4" sqref="12:12 33:33 44:44 73:73 A49"/>
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,7 +1443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1.14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>107</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>2.05</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>136</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>2.32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2.43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>144</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>2.53</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>182</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>190</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>197</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>4.02</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>4.14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>201</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>4.61</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>4.73</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>215</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>217</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>219</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>221</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>5.02</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>223</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>225</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>227</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>231</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>234</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>242</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>244</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>246</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>248</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>250</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>254</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>256</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>262</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>270</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>272</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>274</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>276</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>278</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>280</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>282</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>289</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>291</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>293</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>295</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>248</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>297</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>308</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>312</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>314</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>318</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>320</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>322</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>324</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>326</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>328</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>331</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>8.55</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>335</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>8.7</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>8.8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>341</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>8.97</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>343</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>9.37</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>347</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>9.37</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>349</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>353</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>9.78</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>355</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>9.79</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>357</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>359</v>
       </c>
@@ -9070,13 +9070,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T124">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="ROMACO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T124"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
